--- a/API/data/teachersRes.xlsx
+++ b/API/data/teachersRes.xlsx
@@ -3305,7 +3305,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>86</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>90</v>
       </c>
